--- a/data/trans_orig/POLIPATOLOGIA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38411D96-5210-4E3E-B1D0-2016ACFE7CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{089CAE6F-6B93-478B-87CD-C31C929235F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{60373633-4675-4A6D-A06F-8A42C88F1F64}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0D631371-1D72-41E9-9A9C-96730295354A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
   <si>
     <t>Población con dos o más enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>38,84%</t>
   </si>
   <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
   </si>
   <si>
     <t>55,42%</t>
   </si>
   <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
   </si>
   <si>
     <t>48,13%</t>
   </si>
   <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>61,16%</t>
   </si>
   <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
   </si>
   <si>
     <t>44,58%</t>
   </si>
   <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
   </si>
   <si>
     <t>51,87%</t>
   </si>
   <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>10,95%</t>
   </si>
   <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
   </si>
   <si>
     <t>19,85%</t>
   </si>
   <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
   </si>
   <si>
     <t>15,25%</t>
   </si>
   <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
   </si>
   <si>
     <t>89,05%</t>
   </si>
   <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
   </si>
   <si>
     <t>80,15%</t>
   </si>
   <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
   </si>
   <si>
     <t>84,75%</t>
   </si>
   <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>11,22%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
   </si>
   <si>
     <t>18,55%</t>
   </si>
   <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
   </si>
   <si>
     <t>14,62%</t>
   </si>
   <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
   </si>
   <si>
     <t>88,78%</t>
   </si>
   <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>81,45%</t>
   </si>
   <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
   </si>
   <si>
     <t>85,38%</t>
   </si>
   <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
   </si>
   <si>
     <t>19,78%</t>
   </si>
   <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
   </si>
   <si>
     <t>33,51%</t>
   </si>
   <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
   </si>
   <si>
     <t>26,75%</t>
   </si>
   <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
   </si>
   <si>
     <t>80,22%</t>
   </si>
   <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
   </si>
   <si>
     <t>66,49%</t>
   </si>
   <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
   </si>
   <si>
     <t>73,25%</t>
   </si>
   <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,217 +311,217 @@
     <t>48,83%</t>
   </si>
   <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
   </si>
   <si>
     <t>63,46%</t>
   </si>
   <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
   </si>
   <si>
     <t>57,29%</t>
   </si>
   <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
   </si>
   <si>
     <t>51,17%</t>
   </si>
   <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
   </si>
   <si>
     <t>36,54%</t>
   </si>
   <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
   </si>
   <si>
     <t>42,71%</t>
   </si>
   <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
   </si>
   <si>
     <t>15,4%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
   </si>
   <si>
     <t>24,68%</t>
   </si>
   <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
   </si>
   <si>
     <t>19,79%</t>
   </si>
   <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
   </si>
   <si>
     <t>84,6%</t>
   </si>
   <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
   </si>
   <si>
     <t>75,32%</t>
   </si>
   <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
   </si>
   <si>
     <t>80,21%</t>
   </si>
   <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
   </si>
   <si>
     <t>11,16%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
   </si>
   <si>
     <t>19,98%</t>
   </si>
   <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
   </si>
   <si>
     <t>15,47%</t>
   </si>
   <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
   </si>
   <si>
     <t>88,84%</t>
   </si>
   <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
   </si>
   <si>
     <t>80,02%</t>
   </si>
   <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
   </si>
   <si>
     <t>84,53%</t>
   </si>
   <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
   </si>
   <si>
     <t>24,33%</t>
   </si>
   <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
   </si>
   <si>
     <t>38,67%</t>
   </si>
   <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
   </si>
   <si>
     <t>31,64%</t>
   </si>
   <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
   </si>
   <si>
     <t>75,67%</t>
   </si>
   <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
   </si>
   <si>
     <t>61,33%</t>
   </si>
   <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
   </si>
   <si>
     <t>68,36%</t>
   </si>
   <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
   </si>
   <si>
     <t>Población con dos o más enfermedades crónicas en 2015 (Tasa respuesta: 100,0%)</t>
@@ -530,436 +530,430 @@
     <t>44,37%</t>
   </si>
   <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
   </si>
   <si>
     <t>63,57%</t>
   </si>
   <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
   </si>
   <si>
     <t>55,29%</t>
   </si>
   <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
   </si>
   <si>
     <t>55,63%</t>
   </si>
   <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
   </si>
   <si>
     <t>36,43%</t>
   </si>
   <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
   </si>
   <si>
     <t>44,71%</t>
   </si>
   <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
   </si>
   <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
   </si>
   <si>
     <t>26,89%</t>
   </si>
   <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
   </si>
   <si>
     <t>22,37%</t>
   </si>
   <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
   </si>
   <si>
     <t>81,97%</t>
   </si>
   <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
   </si>
   <si>
     <t>73,11%</t>
   </si>
   <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
   </si>
   <si>
     <t>77,63%</t>
   </si>
   <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
   </si>
   <si>
     <t>18,02%</t>
   </si>
   <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
   </si>
   <si>
     <t>19,91%</t>
   </si>
   <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
   </si>
   <si>
     <t>18,97%</t>
   </si>
   <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
   </si>
   <si>
     <t>81,98%</t>
   </si>
   <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
   </si>
   <si>
     <t>80,09%</t>
   </si>
   <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
   </si>
   <si>
     <t>81,03%</t>
   </si>
   <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
   </si>
   <si>
     <t>23,91%</t>
   </si>
   <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
   </si>
   <si>
     <t>36,14%</t>
   </si>
   <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
   </si>
   <si>
     <t>30,16%</t>
   </si>
   <si>
-    <t>29,02%</t>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
   </si>
   <si>
     <t>31,24%</t>
   </si>
   <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
   </si>
   <si>
     <t>68,76%</t>
   </si>
   <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
   </si>
   <si>
     <t>69,63%</t>
   </si>
   <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
     <t>51,93%</t>
   </si>
   <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
   </si>
   <si>
     <t>59,12%</t>
   </si>
   <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200C8B15-1BC0-4B63-9F59-E13C95C2AA83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DDE8EC-E8A7-41F4-A5C0-7B93E862F19C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2038,7 +2032,7 @@
         <v>4748</v>
       </c>
       <c r="N14" s="7">
-        <v>4875396</v>
+        <v>4875397</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2089,7 +2083,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2122,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5073576-A521-4542-8841-1FEE87C98470}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED947BF-F530-408A-8809-E11A44B68BB1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2873,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A22EE2-9BDF-4E56-89FC-1B3ADA808572}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF12FBF-424D-42B6-B2CF-4132035AB6FD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3624,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460044E6-4D56-4AF3-8E29-9FA4ECF5DC02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2681884-B84E-496E-84EA-2095C8E40F42}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3939,7 +3933,7 @@
         <v>260</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>261</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,28 +3948,28 @@
         <v>1544464</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H8" s="7">
         <v>1628</v>
       </c>
       <c r="I8" s="7">
-        <v>1295826</v>
+        <v>1295827</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M8" s="7">
         <v>2936</v>
@@ -3984,13 +3978,13 @@
         <v>2840291</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,7 +4011,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4058,13 +4052,13 @@
         <v>184244</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H10" s="7">
         <v>401</v>
@@ -4073,13 +4067,13 @@
         <v>267519</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M10" s="7">
         <v>621</v>
@@ -4088,13 +4082,13 @@
         <v>451764</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,13 +4103,13 @@
         <v>488795</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H11" s="7">
         <v>603</v>
@@ -4124,13 +4118,13 @@
         <v>446367</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M11" s="7">
         <v>1064</v>
@@ -4139,13 +4133,13 @@
         <v>935162</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,13 +4207,13 @@
         <v>1107393</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H13" s="7">
         <v>2767</v>
@@ -4228,13 +4222,13 @@
         <v>1826233</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M13" s="7">
         <v>4085</v>
@@ -4243,13 +4237,13 @@
         <v>2933626</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,16 +4255,16 @@
         <v>2046</v>
       </c>
       <c r="D14" s="7">
-        <v>2269302</v>
+        <v>2269301</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H14" s="7">
         <v>2585</v>
@@ -4279,28 +4273,28 @@
         <v>1973127</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>4631</v>
       </c>
       <c r="N14" s="7">
-        <v>4242429</v>
+        <v>4242428</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,7 +4306,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4342,7 +4336,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/POLIPATOLOGIA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{089CAE6F-6B93-478B-87CD-C31C929235F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D26E53AC-3FC4-444B-BFF4-2F9E36FB5C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0D631371-1D72-41E9-9A9C-96730295354A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8FA4B9E2-20C3-42EE-8DA9-7893302F93DF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
   <si>
     <t>Población con dos o más enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,783 +77,780 @@
     <t>38,84%</t>
   </si>
   <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
   </si>
   <si>
     <t>55,42%</t>
   </si>
   <si>
-    <t>52,61%</t>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
   </si>
   <si>
     <t>57,91%</t>
   </si>
   <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
     <t>66,75%</t>
   </si>
   <si>
     <t>27,37%</t>
   </si>
   <si>
-    <t>23,94%</t>
-  </si>
-  <si>
     <t>31,24%</t>
   </si>
   <si>
@@ -879,9 +876,6 @@
   </si>
   <si>
     <t>68,76%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
   </si>
   <si>
     <t>62,53%</t>
@@ -1365,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DDE8EC-E8A7-41F4-A5C0-7B93E862F19C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E46D17-0F6C-41BE-827D-FE2182DA15A3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1692,7 +1686,7 @@
         <v>1462</v>
       </c>
       <c r="D8" s="7">
-        <v>1508006</v>
+        <v>1508007</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1743,7 +1737,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2002,7 +1996,7 @@
         <v>2552</v>
       </c>
       <c r="D14" s="7">
-        <v>2628561</v>
+        <v>2628560</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2053,7 +2047,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2116,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED947BF-F530-408A-8809-E11A44B68BB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6749A2-6C9E-4046-8F55-69841382AD18}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2867,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF12FBF-424D-42B6-B2CF-4132035AB6FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0BDFF3-66D0-4375-8C79-29416DD67D56}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3152,7 +3146,7 @@
         <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>69</v>
       </c>
       <c r="H7" s="7">
         <v>485</v>
@@ -3161,13 +3155,13 @@
         <v>534722</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>841</v>
@@ -3176,13 +3170,13 @@
         <v>909131</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3191,13 @@
         <v>1701976</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>1423</v>
@@ -3212,13 +3206,13 @@
         <v>1453578</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>3019</v>
@@ -3227,13 +3221,13 @@
         <v>3155554</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,13 +3295,13 @@
         <v>98554</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>97</v>
@@ -3316,13 +3310,13 @@
         <v>109342</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>183</v>
@@ -3331,13 +3325,13 @@
         <v>207896</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3346,13 @@
         <v>448332</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>429</v>
@@ -3367,13 +3361,13 @@
         <v>439798</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>844</v>
@@ -3382,13 +3376,13 @@
         <v>888130</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3450,13 @@
         <v>807656</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>1134</v>
@@ -3471,13 +3465,13 @@
         <v>1276346</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>1929</v>
@@ -3486,13 +3480,13 @@
         <v>2084002</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3501,13 @@
         <v>2569962</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>2192</v>
@@ -3522,13 +3516,13 @@
         <v>2255754</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>4612</v>
@@ -3537,13 +3531,13 @@
         <v>4825716</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2681884-B84E-496E-84EA-2095C8E40F42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE554A7-8ACD-4246-8894-89FDBA5EF2CD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3635,7 +3629,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3742,13 +3736,13 @@
         <v>305591</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>1073</v>
@@ -3757,13 +3751,13 @@
         <v>605020</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>1487</v>
@@ -3772,13 +3766,13 @@
         <v>910611</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3787,13 @@
         <v>236043</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>354</v>
@@ -3808,13 +3802,13 @@
         <v>230933</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>631</v>
@@ -3823,13 +3817,13 @@
         <v>466975</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3891,13 @@
         <v>617558</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H7" s="7">
         <v>1293</v>
@@ -3912,13 +3906,13 @@
         <v>953694</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M7" s="7">
         <v>1977</v>
@@ -3927,13 +3921,13 @@
         <v>1571252</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3942,13 @@
         <v>1544464</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>1628</v>
@@ -3963,13 +3957,13 @@
         <v>1295827</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M8" s="7">
         <v>2936</v>
@@ -3978,10 +3972,10 @@
         <v>2840291</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>268</v>
@@ -4055,10 +4049,10 @@
         <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>401</v>
@@ -4067,13 +4061,13 @@
         <v>267519</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>621</v>
@@ -4082,13 +4076,13 @@
         <v>451764</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4097,13 @@
         <v>488795</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>603</v>
@@ -4118,13 +4112,13 @@
         <v>446367</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>1064</v>
@@ -4133,13 +4127,13 @@
         <v>935162</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4201,13 @@
         <v>1107393</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>2767</v>
@@ -4222,13 +4216,13 @@
         <v>1826233</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>4085</v>
@@ -4237,13 +4231,13 @@
         <v>2933626</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4252,13 @@
         <v>2269301</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>2585</v>
@@ -4273,13 +4267,13 @@
         <v>1973127</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>4631</v>
@@ -4288,13 +4282,13 @@
         <v>4242428</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/POLIPATOLOGIA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D26E53AC-3FC4-444B-BFF4-2F9E36FB5C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2917067-3641-42D5-AD4B-1ECB7B90EF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8FA4B9E2-20C3-42EE-8DA9-7893302F93DF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D9F48FB2-C657-4C87-9449-68EC81F6128A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="307">
   <si>
     <t>Población con dos o más enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>38,84%</t>
   </si>
   <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
   </si>
   <si>
     <t>55,42%</t>
   </si>
   <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
   </si>
   <si>
     <t>48,13%</t>
   </si>
   <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>61,16%</t>
   </si>
   <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
   </si>
   <si>
     <t>44,58%</t>
   </si>
   <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
   </si>
   <si>
     <t>51,87%</t>
   </si>
   <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>10,95%</t>
   </si>
   <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
   </si>
   <si>
     <t>19,85%</t>
   </si>
   <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
   </si>
   <si>
     <t>15,25%</t>
   </si>
   <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
   </si>
   <si>
     <t>89,05%</t>
   </si>
   <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
   </si>
   <si>
     <t>80,15%</t>
   </si>
   <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
   </si>
   <si>
     <t>84,75%</t>
   </si>
   <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,73 +197,73 @@
     <t>11,22%</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
   </si>
   <si>
     <t>18,55%</t>
   </si>
   <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
   </si>
   <si>
     <t>14,62%</t>
   </si>
   <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
   </si>
   <si>
     <t>88,78%</t>
   </si>
   <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
   </si>
   <si>
     <t>81,45%</t>
   </si>
   <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
   </si>
   <si>
     <t>85,38%</t>
   </si>
   <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
   </si>
   <si>
     <t>19,78%</t>
   </si>
   <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
   </si>
   <si>
     <t>33,51%</t>
   </si>
   <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
   </si>
   <si>
     <t>26,75%</t>
@@ -272,31 +272,31 @@
     <t>25,72%</t>
   </si>
   <si>
-    <t>27,75%</t>
+    <t>27,96%</t>
   </si>
   <si>
     <t>80,22%</t>
   </si>
   <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
   </si>
   <si>
     <t>66,49%</t>
   </si>
   <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
   </si>
   <si>
     <t>73,25%</t>
   </si>
   <si>
-    <t>72,25%</t>
+    <t>72,04%</t>
   </si>
   <si>
     <t>74,28%</t>
@@ -311,217 +311,217 @@
     <t>48,83%</t>
   </si>
   <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
   </si>
   <si>
     <t>63,46%</t>
   </si>
   <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
   </si>
   <si>
     <t>57,29%</t>
   </si>
   <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
   </si>
   <si>
     <t>51,17%</t>
   </si>
   <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
   </si>
   <si>
     <t>36,54%</t>
   </si>
   <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
   </si>
   <si>
     <t>42,71%</t>
   </si>
   <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
   </si>
   <si>
     <t>15,4%</t>
   </si>
   <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
   </si>
   <si>
     <t>24,68%</t>
   </si>
   <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
   </si>
   <si>
     <t>19,79%</t>
   </si>
   <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
   </si>
   <si>
     <t>84,6%</t>
   </si>
   <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
   </si>
   <si>
     <t>75,32%</t>
   </si>
   <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
   </si>
   <si>
     <t>80,21%</t>
   </si>
   <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
   </si>
   <si>
     <t>11,16%</t>
   </si>
   <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
   </si>
   <si>
     <t>19,98%</t>
   </si>
   <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
   </si>
   <si>
     <t>15,47%</t>
   </si>
   <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
   </si>
   <si>
     <t>88,84%</t>
   </si>
   <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
   </si>
   <si>
     <t>80,02%</t>
   </si>
   <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
   </si>
   <si>
     <t>84,53%</t>
   </si>
   <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
   </si>
   <si>
     <t>24,33%</t>
   </si>
   <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
   </si>
   <si>
     <t>38,67%</t>
   </si>
   <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
   </si>
   <si>
     <t>31,64%</t>
   </si>
   <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
   </si>
   <si>
     <t>75,67%</t>
   </si>
   <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
   </si>
   <si>
     <t>61,33%</t>
   </si>
   <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
   </si>
   <si>
     <t>68,36%</t>
   </si>
   <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
   </si>
   <si>
     <t>Población con dos o más enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
@@ -530,112 +530,118 @@
     <t>44,37%</t>
   </si>
   <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
   </si>
   <si>
     <t>63,57%</t>
   </si>
   <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
   </si>
   <si>
     <t>55,29%</t>
   </si>
   <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
   </si>
   <si>
     <t>55,63%</t>
   </si>
   <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
   </si>
   <si>
     <t>36,43%</t>
   </si>
   <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
   </si>
   <si>
     <t>44,71%</t>
   </si>
   <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
   </si>
   <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>16,39%</t>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
   </si>
   <si>
     <t>26,89%</t>
   </si>
   <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
   </si>
   <si>
     <t>22,37%</t>
   </si>
   <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
   </si>
   <si>
     <t>81,97%</t>
   </si>
   <si>
-    <t>83,61%</t>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
   </si>
   <si>
     <t>73,11%</t>
   </si>
   <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
   </si>
   <si>
     <t>77,63%</t>
   </si>
   <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
   </si>
   <si>
     <t>18,02%</t>
   </si>
   <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
   </si>
   <si>
     <t>19,91%</t>
@@ -644,31 +650,31 @@
     <t>16,51%</t>
   </si>
   <si>
-    <t>23,94%</t>
+    <t>23,77%</t>
   </si>
   <si>
     <t>18,97%</t>
   </si>
   <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
   </si>
   <si>
     <t>81,98%</t>
   </si>
   <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
   </si>
   <si>
     <t>80,09%</t>
   </si>
   <si>
-    <t>76,06%</t>
+    <t>76,23%</t>
   </si>
   <si>
     <t>83,49%</t>
@@ -677,64 +683,64 @@
     <t>81,03%</t>
   </si>
   <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
   </si>
   <si>
     <t>23,91%</t>
   </si>
   <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
   </si>
   <si>
     <t>36,14%</t>
   </si>
   <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
   </si>
   <si>
     <t>30,16%</t>
   </si>
   <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
   </si>
   <si>
     <t>76,09%</t>
   </si>
   <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
   </si>
   <si>
     <t>63,86%</t>
   </si>
   <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
   </si>
   <si>
     <t>69,84%</t>
   </si>
   <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
   </si>
   <si>
     <t>Población con dos o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
@@ -743,211 +749,217 @@
     <t>56,42%</t>
   </si>
   <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
   </si>
   <si>
     <t>72,37%</t>
   </si>
   <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
   </si>
   <si>
     <t>66,1%</t>
   </si>
   <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
   </si>
   <si>
     <t>43,58%</t>
   </si>
   <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
   </si>
   <si>
     <t>27,63%</t>
   </si>
   <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
   </si>
   <si>
     <t>33,9%</t>
   </si>
   <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
   </si>
   <si>
     <t>28,56%</t>
   </si>
   <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
   </si>
   <si>
     <t>42,4%</t>
   </si>
   <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
   </si>
   <si>
     <t>35,62%</t>
   </si>
   <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
   </si>
   <si>
     <t>71,44%</t>
   </si>
   <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
   </si>
   <si>
     <t>57,6%</t>
   </si>
   <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
   </si>
   <si>
     <t>64,38%</t>
   </si>
   <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
   </si>
   <si>
     <t>27,37%</t>
   </si>
   <si>
-    <t>31,24%</t>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
   </si>
   <si>
     <t>37,47%</t>
   </si>
   <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
   </si>
   <si>
     <t>32,57%</t>
   </si>
   <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
   </si>
   <si>
     <t>72,63%</t>
   </si>
   <si>
-    <t>68,76%</t>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
   </si>
   <si>
     <t>62,53%</t>
   </si>
   <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
   </si>
   <si>
     <t>67,43%</t>
   </si>
   <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
   </si>
   <si>
     <t>32,8%</t>
   </si>
   <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
   </si>
   <si>
     <t>48,07%</t>
   </si>
   <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
   </si>
   <si>
     <t>40,88%</t>
   </si>
   <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
   </si>
   <si>
     <t>67,2%</t>
   </si>
   <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
   </si>
   <si>
     <t>51,93%</t>
   </si>
   <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
   </si>
   <si>
     <t>59,12%</t>
   </si>
   <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E46D17-0F6C-41BE-827D-FE2182DA15A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B33553-42B8-4248-BA4E-A9878AEAE4FF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1686,7 +1698,7 @@
         <v>1462</v>
       </c>
       <c r="D8" s="7">
-        <v>1508007</v>
+        <v>1508006</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1737,7 +1749,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1996,7 +2008,7 @@
         <v>2552</v>
       </c>
       <c r="D14" s="7">
-        <v>2628560</v>
+        <v>2628561</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2026,7 +2038,7 @@
         <v>4748</v>
       </c>
       <c r="N14" s="7">
-        <v>4875397</v>
+        <v>4875396</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2047,7 +2059,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2077,7 +2089,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2110,7 +2122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6749A2-6C9E-4046-8F55-69841382AD18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66061C2-7CDF-4AB1-9333-88C85EBD4969}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2861,7 +2873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0BDFF3-66D0-4375-8C79-29416DD67D56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5B51A8-5C8C-4B19-9207-A516D7A6D287}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3146,7 +3158,7 @@
         <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>69</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>485</v>
@@ -3155,13 +3167,13 @@
         <v>534722</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>841</v>
@@ -3170,13 +3182,13 @@
         <v>909131</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3203,13 @@
         <v>1701976</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>1423</v>
@@ -3206,13 +3218,13 @@
         <v>1453578</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>3019</v>
@@ -3221,13 +3233,13 @@
         <v>3155554</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,13 +3307,13 @@
         <v>98554</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>97</v>
@@ -3310,13 +3322,13 @@
         <v>109342</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>183</v>
@@ -3325,13 +3337,13 @@
         <v>207896</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3358,13 @@
         <v>448332</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>429</v>
@@ -3361,13 +3373,13 @@
         <v>439798</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>844</v>
@@ -3376,13 +3388,13 @@
         <v>888130</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,13 +3462,13 @@
         <v>807656</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>1134</v>
@@ -3465,13 +3477,13 @@
         <v>1276346</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>1929</v>
@@ -3480,13 +3492,13 @@
         <v>2084002</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3513,13 @@
         <v>2569962</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>2192</v>
@@ -3516,13 +3528,13 @@
         <v>2255754</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>4612</v>
@@ -3531,13 +3543,13 @@
         <v>4825716</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,7 +3624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE554A7-8ACD-4246-8894-89FDBA5EF2CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3782F8-6378-40FB-91CB-14CD09ACFF14}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3629,7 +3641,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3736,13 +3748,13 @@
         <v>305591</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>1073</v>
@@ -3751,13 +3763,13 @@
         <v>605020</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>1487</v>
@@ -3766,13 +3778,13 @@
         <v>910611</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3799,13 @@
         <v>236043</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>354</v>
@@ -3802,13 +3814,13 @@
         <v>230933</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>631</v>
@@ -3817,13 +3829,13 @@
         <v>466975</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3903,13 @@
         <v>617558</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H7" s="7">
         <v>1293</v>
@@ -3906,13 +3918,13 @@
         <v>953694</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M7" s="7">
         <v>1977</v>
@@ -3921,13 +3933,13 @@
         <v>1571252</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,28 +3954,28 @@
         <v>1544464</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H8" s="7">
         <v>1628</v>
       </c>
       <c r="I8" s="7">
-        <v>1295827</v>
+        <v>1295826</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M8" s="7">
         <v>2936</v>
@@ -3972,13 +3984,13 @@
         <v>2840291</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,7 +4017,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4046,13 +4058,13 @@
         <v>184244</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>201</v>
+        <v>272</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H10" s="7">
         <v>401</v>
@@ -4061,13 +4073,13 @@
         <v>267519</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M10" s="7">
         <v>621</v>
@@ -4076,13 +4088,13 @@
         <v>451764</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4109,13 @@
         <v>488795</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>282</v>
       </c>
       <c r="H11" s="7">
         <v>603</v>
@@ -4112,13 +4124,13 @@
         <v>446367</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M11" s="7">
         <v>1064</v>
@@ -4127,13 +4139,13 @@
         <v>935162</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4213,13 @@
         <v>1107393</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H13" s="7">
         <v>2767</v>
@@ -4216,13 +4228,13 @@
         <v>1826233</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M13" s="7">
         <v>4085</v>
@@ -4231,13 +4243,13 @@
         <v>2933626</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,16 +4261,16 @@
         <v>2046</v>
       </c>
       <c r="D14" s="7">
-        <v>2269301</v>
+        <v>2269302</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H14" s="7">
         <v>2585</v>
@@ -4267,28 +4279,28 @@
         <v>1973127</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>4631</v>
       </c>
       <c r="N14" s="7">
-        <v>4242428</v>
+        <v>4242429</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,7 +4312,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4330,7 +4342,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
